--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value11.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value11.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.498520559855774</v>
+        <v>4.496490001678467</v>
       </c>
       <c r="B1">
-        <v>2.09196462668789</v>
+        <v>6.750326633453369</v>
       </c>
       <c r="C1">
-        <v>2.162080760622767</v>
+        <v>5.704201698303223</v>
       </c>
       <c r="D1">
-        <v>2.127852737808951</v>
+        <v>6.721870899200439</v>
       </c>
       <c r="E1">
-        <v>0.5655716379257999</v>
+        <v>3.620947122573853</v>
       </c>
     </row>
   </sheetData>
